--- a/results/mp/tinybert/corona/confidence/42/desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,271 +40,235 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>kills</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>threat</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>safely</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>energy</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
+    <t>sure</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -662,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q64"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -752,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -784,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -802,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -831,13 +795,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +813,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -881,13 +845,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -931,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -981,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1031,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.96</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9574468085106383</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.9166666666666666</v>
+        <v>0.64</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L11">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.9090909090909091</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.96875</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1231,13 +1195,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.9</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.9583333333333334</v>
+        <v>0.9375</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1281,13 +1245,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.875</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K14">
-        <v>0.95</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1295,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8701298701298701</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1313,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.9375</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1345,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8235294117647058</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K16">
-        <v>0.9230769230769231</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1395,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.8181818181818182</v>
+        <v>0.1589147286821705</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,313 +1413,169 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>434</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K17">
-        <v>0.9166666666666666</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L17">
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>24</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8802816901408451</v>
+      </c>
+      <c r="L18">
+        <v>125</v>
+      </c>
+      <c r="M18">
+        <v>125</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.8671875</v>
+      </c>
+      <c r="L19">
+        <v>111</v>
+      </c>
+      <c r="M19">
+        <v>111</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8658536585365854</v>
+      </c>
+      <c r="L20">
+        <v>71</v>
+      </c>
+      <c r="M20">
+        <v>71</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>11</v>
       </c>
-      <c r="M17">
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.8</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K18">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="L18">
-        <v>46</v>
-      </c>
-      <c r="M18">
-        <v>46</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L21">
+        <v>44</v>
+      </c>
+      <c r="M21">
+        <v>44</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.8611111111111112</v>
+      </c>
+      <c r="L22">
+        <v>31</v>
+      </c>
+      <c r="M22">
+        <v>31</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.75</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K19">
-        <v>0.9</v>
-      </c>
-      <c r="L19">
-        <v>9</v>
-      </c>
-      <c r="M19">
-        <v>9</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.7083333333333334</v>
-      </c>
-      <c r="C20">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>0.896551724137931</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.5517241379310345</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>13</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21">
-        <v>0.8947368421052632</v>
-      </c>
-      <c r="L21">
-        <v>17</v>
-      </c>
-      <c r="M21">
-        <v>17</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.5</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L22">
-        <v>50</v>
-      </c>
-      <c r="M22">
-        <v>50</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>11</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K23">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L23">
         <v>24</v>
@@ -1773,271 +1593,151 @@
         <v>0</v>
       </c>
       <c r="Q23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.85</v>
+      </c>
+      <c r="L24">
+        <v>102</v>
+      </c>
+      <c r="M24">
+        <v>102</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L25">
+        <v>19</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.8207547169811321</v>
+      </c>
+      <c r="L26">
+        <v>87</v>
+      </c>
+      <c r="M26">
+        <v>87</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="L27">
+        <v>18</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.8125</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="C24">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L24">
-        <v>48</v>
-      </c>
-      <c r="M24">
-        <v>48</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.3991416309012876</v>
-      </c>
-      <c r="C25">
-        <v>93</v>
-      </c>
-      <c r="D25">
-        <v>93</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>140</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L25">
-        <v>8</v>
-      </c>
-      <c r="M25">
-        <v>8</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>18</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L26">
-        <v>8</v>
-      </c>
-      <c r="M26">
-        <v>8</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.2625</v>
-      </c>
-      <c r="C27">
-        <v>21</v>
-      </c>
-      <c r="D27">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>59</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L27">
-        <v>15</v>
-      </c>
-      <c r="M27">
-        <v>15</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2325581395348837</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>66</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L28">
-        <v>45</v>
-      </c>
-      <c r="M28">
-        <v>45</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K29">
-        <v>0.88</v>
+        <v>0.8125</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2054,16 +1754,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K30">
-        <v>0.8793103448275862</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L30">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M30">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2075,21 +1775,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.8461538461538461</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2101,21 +1801,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.8461538461538461</v>
+        <v>0.79375</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2127,21 +1827,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.8333333333333334</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L33">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2153,21 +1853,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.8181818181818182</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2179,21 +1879,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2205,21 +1905,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2231,21 +1931,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.7878787878787878</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L37">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2257,21 +1957,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.7857142857142857</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L38">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2283,21 +1983,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K39">
-        <v>0.7777777777777778</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="L39">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="M39">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2309,21 +2009,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="K40">
-        <v>0.7777777777777778</v>
+        <v>0.7310704960835509</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="M40">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2335,21 +2035,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K41">
-        <v>0.7699530516431925</v>
+        <v>0.6875</v>
       </c>
       <c r="L41">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="M41">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2361,21 +2061,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K42">
-        <v>0.7692307692307693</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2387,21 +2087,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K43">
-        <v>0.7692307692307693</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L43">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2413,21 +2113,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="K44">
-        <v>0.7647058823529411</v>
+        <v>0.6542372881355932</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2439,21 +2139,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K45">
-        <v>0.7534246575342466</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L45">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2465,21 +2165,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K46">
-        <v>0.7286821705426356</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L46">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2491,21 +2191,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K47">
-        <v>0.7083333333333334</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2517,21 +2217,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K48">
-        <v>0.7</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L48">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="M48">
-        <v>7</v>
+        <v>205</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2543,21 +2243,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>3</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K49">
-        <v>0.6923076923076923</v>
+        <v>0.6</v>
       </c>
       <c r="L49">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M49">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2569,21 +2269,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="K50">
-        <v>0.6923076923076923</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L50">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2595,21 +2295,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.6818181818181818</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2621,21 +2321,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="K52">
-        <v>0.65</v>
+        <v>0.575</v>
       </c>
       <c r="L52">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2647,21 +2347,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K53">
-        <v>0.6458333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L53">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="M53">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2673,21 +2373,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K54">
-        <v>0.6413043478260869</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L54">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2699,21 +2399,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K55">
-        <v>0.6333333333333333</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2725,21 +2425,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K56">
-        <v>0.6071428571428571</v>
+        <v>0.515625</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2751,21 +2451,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K57">
-        <v>0.6</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L57">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="M57">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2777,21 +2477,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K58">
-        <v>0.5833333333333334</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L58">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2803,21 +2503,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K59">
-        <v>0.5714285714285714</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2829,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K60">
-        <v>0.5714285714285714</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L60">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2855,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>6</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K61">
-        <v>0.48</v>
+        <v>0.0145413870246085</v>
       </c>
       <c r="L61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2881,21 +2581,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>13</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K62">
-        <v>0.4210526315789473</v>
+        <v>0.004390018484288355</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2907,21 +2607,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K63">
-        <v>0.3478260869565217</v>
+        <v>0.002602081665332266</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2933,33 +2633,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="10:17">
-      <c r="J64" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K64">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L64">
-        <v>8</v>
-      </c>
-      <c r="M64">
-        <v>8</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>16</v>
+        <v>4983</v>
       </c>
     </row>
   </sheetData>
